--- a/ejemplos/modelos_arbol_individual-masas_mixtas/PnigraPpinaster_IFN_3_parcelas.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_mixtas/PnigraPpinaster_IFN_3_parcelas.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,70 +371,75 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_sp1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ID_sp2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -452,42 +457,45 @@
         </is>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
         <v>26</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>937.2457759856059</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>20.12831319444444</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>12.27323954473516</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-2.52182382974855</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>42.96387747083473</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>47.93080244160569</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>45.26148945732898</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>43.10071530590611</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>41.29324998544403</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>39.69590202862207</v>
       </c>
     </row>
@@ -503,42 +511,45 @@
         </is>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
         <v>26</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>30</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1492.519688550663</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>26.38217430555556</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>9.389045416446855</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.7383771594335744</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>40.02447423621394</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>18.59407952101202</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>17.98705972980648</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>16.93674849984576</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>16.12244881003243</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>15.22923580594796</v>
       </c>
     </row>
@@ -554,39 +565,42 @@
         </is>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
         <v>26</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>326.9396208758845</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10.96524413888889</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>10.76838825657662</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.7530389570650017</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>39.93467603912796</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>20.97885239367085</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>18.40130505227524</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>17.33567664518073</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>16.49922861299208</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>15.51498905806353</v>
       </c>
     </row>
